--- a/ConvertedEqual/Kentucky_Converted.xlsx
+++ b/ConvertedEqual/Kentucky_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="281">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -822,6 +822,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1219,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF221"/>
+  <dimension ref="A1:AF233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1632,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.3333333333</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.3333333333</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0.3333333333</v>
@@ -1647,7 +1683,7 @@
         <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>0.3333333333</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1656,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="AF7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -3229,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0.07692307691538461</v>
+        <v>0.08333333332499999</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -3327,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0.07692307691538461</v>
+        <v>0.08333333332499999</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -3425,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0.3025641025538462</v>
+        <v>0.3277777777666667</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3523,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0.3794871794769232</v>
+        <v>0.4111111111000001</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -3621,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0.4564102564000001</v>
+        <v>0.4944444444333334</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3719,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0.4564102564000001</v>
+        <v>0.4944444444333334</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -3817,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0.4564102564000001</v>
+        <v>0.4944444444333334</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3915,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.533333333323077</v>
+        <v>0.5777777777666667</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -4013,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0.533333333323077</v>
+        <v>0.5777777777666667</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -4111,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0.533333333323077</v>
+        <v>0.5777777777666667</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -4209,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -4307,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -4405,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -4503,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -4601,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -4699,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="40" spans="1:32">
@@ -4797,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -4895,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -4993,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -5091,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -5189,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -5287,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -5385,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="47" spans="1:32">
@@ -5483,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -5581,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="49" spans="1:32">
@@ -5679,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="50" spans="1:32">
@@ -5777,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="51" spans="1:32">
@@ -5875,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="52" spans="1:32">
@@ -5973,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="53" spans="1:32">
@@ -6071,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="54" spans="1:32">
@@ -6169,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="55" spans="1:32">
@@ -6267,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="56" spans="1:32">
@@ -6365,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="57" spans="1:32">
@@ -6463,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="58" spans="1:32">
@@ -6561,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="59" spans="1:32">
@@ -6659,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="60" spans="1:32">
@@ -6757,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="61" spans="1:32">
@@ -6855,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="62" spans="1:32">
@@ -6953,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="AF62">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="63" spans="1:32">
@@ -7051,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="64" spans="1:32">
@@ -7149,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="65" spans="1:32">
@@ -7247,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="66" spans="1:32">
@@ -7345,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="67" spans="1:32">
@@ -7443,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="68" spans="1:32">
@@ -7541,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="69" spans="1:32">
@@ -7639,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="AF69">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="70" spans="1:32">
@@ -7737,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="71" spans="1:32">
@@ -7835,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="72" spans="1:32">
@@ -7933,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="73" spans="1:32">
@@ -8031,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="74" spans="1:32">
@@ -8129,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="75" spans="1:32">
@@ -8227,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="AF75">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="76" spans="1:32">
@@ -8325,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="77" spans="1:32">
@@ -8423,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AF77">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="78" spans="1:32">
@@ -8521,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="79" spans="1:32">
@@ -8619,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="80" spans="1:32">
@@ -8717,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>0.7692307692076924</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="81" spans="1:32">
@@ -8815,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="AF81">
-        <v>0.6615384615230769</v>
+        <v>0.71666666665</v>
       </c>
     </row>
     <row r="82" spans="1:32">
@@ -8913,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="AF82">
-        <v>0.6615384615230769</v>
+        <v>0.71666666665</v>
       </c>
     </row>
     <row r="83" spans="1:32">
@@ -9011,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="AF83">
-        <v>0.6615384615230769</v>
+        <v>0.71666666665</v>
       </c>
     </row>
     <row r="84" spans="1:32">
@@ -9109,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>0.6615384615230769</v>
+        <v>0.71666666665</v>
       </c>
     </row>
     <row r="85" spans="1:32">
@@ -9207,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="AF85">
-        <v>0.6615384615230769</v>
+        <v>0.71666666665</v>
       </c>
     </row>
     <row r="86" spans="1:32">
@@ -9305,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>0.6615384615230769</v>
+        <v>0.71666666665</v>
       </c>
     </row>
     <row r="87" spans="1:32">
@@ -9403,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="AF87">
-        <v>0.6615384615230769</v>
+        <v>0.71666666665</v>
       </c>
     </row>
     <row r="88" spans="1:32">
@@ -9501,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>0.6615384615230769</v>
+        <v>0.71666666665</v>
       </c>
     </row>
     <row r="89" spans="1:32">
@@ -9599,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="AF89">
-        <v>0.6615384615230769</v>
+        <v>0.71666666665</v>
       </c>
     </row>
     <row r="90" spans="1:32">
@@ -9697,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="AF90">
-        <v>0.5846153846000001</v>
+        <v>0.6333333333166667</v>
       </c>
     </row>
     <row r="91" spans="1:32">
@@ -9795,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="AF91">
-        <v>0.5846153846000001</v>
+        <v>0.6333333333166667</v>
       </c>
     </row>
     <row r="92" spans="1:32">
@@ -9893,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="AF92">
-        <v>0.5589743589615386</v>
+        <v>0.6055555555416667</v>
       </c>
     </row>
     <row r="93" spans="1:32">
@@ -9991,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="AF93">
-        <v>0.5589743589615386</v>
+        <v>0.6055555555416667</v>
       </c>
     </row>
     <row r="94" spans="1:32">
@@ -10089,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="AF94">
-        <v>0.5589743589615386</v>
+        <v>0.6055555555416667</v>
       </c>
     </row>
     <row r="95" spans="1:32">
@@ -10187,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>0.5128205128076924</v>
+        <v>0.5555555555416667</v>
       </c>
     </row>
     <row r="96" spans="1:32">
@@ -10285,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <v>0.5128205128076924</v>
+        <v>0.5555555555416667</v>
       </c>
     </row>
     <row r="97" spans="1:32">
@@ -10383,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>0.5128205128076924</v>
+        <v>0.5555555555416667</v>
       </c>
     </row>
     <row r="98" spans="1:32">
@@ -10481,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="AF98">
-        <v>0.5128205128076924</v>
+        <v>0.5555555555416667</v>
       </c>
     </row>
     <row r="99" spans="1:32">
@@ -10579,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="AF99">
-        <v>0.5128205128076924</v>
+        <v>0.5555555555416667</v>
       </c>
     </row>
     <row r="100" spans="1:32">
@@ -10677,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="AF100">
-        <v>0.5128205128076924</v>
+        <v>0.5555555555416667</v>
       </c>
     </row>
     <row r="101" spans="1:32">
@@ -10775,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>0.5128205128076924</v>
+        <v>0.5555555555416667</v>
       </c>
     </row>
     <row r="102" spans="1:32">
@@ -10873,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="AF102">
-        <v>0.3974358974230769</v>
+        <v>0.4305555555416667</v>
       </c>
     </row>
     <row r="103" spans="1:32">
@@ -10971,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="AF103">
-        <v>0.3974358974230769</v>
+        <v>0.4305555555416667</v>
       </c>
     </row>
     <row r="104" spans="1:32">
@@ -11069,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="AF104">
-        <v>0.3974358974230769</v>
+        <v>0.4305555555416667</v>
       </c>
     </row>
     <row r="105" spans="1:32">
@@ -11167,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="AF105">
-        <v>0.3974358974230769</v>
+        <v>0.4305555555416667</v>
       </c>
     </row>
     <row r="106" spans="1:32">
@@ -11265,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>0.3974358974230769</v>
+        <v>0.4305555555416667</v>
       </c>
     </row>
     <row r="107" spans="1:32">
@@ -11363,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>0.3974358974230769</v>
+        <v>0.4305555555416667</v>
       </c>
     </row>
     <row r="108" spans="1:32">
@@ -11461,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="AF108">
-        <v>0.3974358974230769</v>
+        <v>0.4305555555416667</v>
       </c>
     </row>
     <row r="109" spans="1:32">
@@ -11559,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>0.269230769223077</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="110" spans="1:32">
@@ -11657,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="AF110">
-        <v>0.269230769223077</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="111" spans="1:32">
@@ -11755,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>0.269230769223077</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="112" spans="1:32">
@@ -11853,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="113" spans="1:32">
@@ -11951,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="114" spans="1:32">
@@ -12049,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="AF114">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="115" spans="1:32">
@@ -12147,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="AF115">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="116" spans="1:32">
@@ -12245,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="AF116">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="117" spans="1:32">
@@ -12343,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="AF117">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="118" spans="1:32">
@@ -12441,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="AF118">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="119" spans="1:32">
@@ -12539,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="AF119">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="120" spans="1:32">
@@ -12637,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="AF120">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="121" spans="1:32">
@@ -12735,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="122" spans="1:32">
@@ -12833,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="AF122">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -12931,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="AF123">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="124" spans="1:32">
@@ -13029,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="AF124">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="125" spans="1:32">
@@ -13127,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="AF125">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="126" spans="1:32">
@@ -13225,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="AF126">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="127" spans="1:32">
@@ -13323,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="AF127">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="128" spans="1:32">
@@ -13421,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="AF128">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="129" spans="1:32">
@@ -13519,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="AF129">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="130" spans="1:32">
@@ -13617,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="AF130">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="131" spans="1:32">
@@ -13715,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="AF131">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="132" spans="1:32">
@@ -13813,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="AF132">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="133" spans="1:32">
@@ -13911,7 +13947,7 @@
         <v>0</v>
       </c>
       <c r="AF133">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="134" spans="1:32">
@@ -14009,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="AF134">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="135" spans="1:32">
@@ -14107,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="AF135">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="136" spans="1:32">
@@ -14205,7 +14241,7 @@
         <v>0</v>
       </c>
       <c r="AF136">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="137" spans="1:32">
@@ -14303,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="AF137">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="138" spans="1:32">
@@ -14401,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="AF138">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="139" spans="1:32">
@@ -14499,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="AF139">
-        <v>0.1794871794846154</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="140" spans="1:32">
@@ -14597,7 +14633,7 @@
         <v>1</v>
       </c>
       <c r="AF140">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="141" spans="1:32">
@@ -14695,7 +14731,7 @@
         <v>1</v>
       </c>
       <c r="AF141">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="142" spans="1:32">
@@ -14793,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="AF142">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="143" spans="1:32">
@@ -14891,7 +14927,7 @@
         <v>1</v>
       </c>
       <c r="AF143">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="144" spans="1:32">
@@ -14989,7 +15025,7 @@
         <v>1</v>
       </c>
       <c r="AF144">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="145" spans="1:32">
@@ -15087,7 +15123,7 @@
         <v>1</v>
       </c>
       <c r="AF145">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="146" spans="1:32">
@@ -15185,7 +15221,7 @@
         <v>1</v>
       </c>
       <c r="AF146">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="147" spans="1:32">
@@ -15283,7 +15319,7 @@
         <v>1</v>
       </c>
       <c r="AF147">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="148" spans="1:32">
@@ -15381,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="AF148">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="149" spans="1:32">
@@ -15479,7 +15515,7 @@
         <v>1</v>
       </c>
       <c r="AF149">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="150" spans="1:32">
@@ -15577,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="AF150">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="151" spans="1:32">
@@ -15675,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="AF151">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="152" spans="1:32">
@@ -15773,7 +15809,7 @@
         <v>1</v>
       </c>
       <c r="AF152">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="153" spans="1:32">
@@ -15871,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="AF153">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="154" spans="1:32">
@@ -15969,7 +16005,7 @@
         <v>1</v>
       </c>
       <c r="AF154">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="155" spans="1:32">
@@ -16067,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="AF155">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="156" spans="1:32">
@@ -16165,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="AF156">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="157" spans="1:32">
@@ -16263,7 +16299,7 @@
         <v>1</v>
       </c>
       <c r="AF157">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="158" spans="1:32">
@@ -16361,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AF158">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="159" spans="1:32">
@@ -16459,7 +16495,7 @@
         <v>1</v>
       </c>
       <c r="AF159">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="160" spans="1:32">
@@ -16557,7 +16593,7 @@
         <v>1</v>
       </c>
       <c r="AF160">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="161" spans="1:32">
@@ -16655,7 +16691,7 @@
         <v>1</v>
       </c>
       <c r="AF161">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="162" spans="1:32">
@@ -16753,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="AF162">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="163" spans="1:32">
@@ -16851,7 +16887,7 @@
         <v>1</v>
       </c>
       <c r="AF163">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="164" spans="1:32">
@@ -16949,7 +16985,7 @@
         <v>1</v>
       </c>
       <c r="AF164">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="165" spans="1:32">
@@ -17047,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="AF165">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="166" spans="1:32">
@@ -17145,7 +17181,7 @@
         <v>1</v>
       </c>
       <c r="AF166">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="167" spans="1:32">
@@ -17243,7 +17279,7 @@
         <v>1</v>
       </c>
       <c r="AF167">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="168" spans="1:32">
@@ -17341,7 +17377,7 @@
         <v>1</v>
       </c>
       <c r="AF168">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="169" spans="1:32">
@@ -17439,7 +17475,7 @@
         <v>1</v>
       </c>
       <c r="AF169">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="170" spans="1:32">
@@ -17537,7 +17573,7 @@
         <v>1</v>
       </c>
       <c r="AF170">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="171" spans="1:32">
@@ -17635,7 +17671,7 @@
         <v>1</v>
       </c>
       <c r="AF171">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="172" spans="1:32">
@@ -17733,7 +17769,7 @@
         <v>1</v>
       </c>
       <c r="AF172">
-        <v>0.2564102564076923</v>
+        <v>0.277777777775</v>
       </c>
     </row>
     <row r="173" spans="1:32">
@@ -17831,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="AF173">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174" spans="1:32">
@@ -17929,7 +17965,7 @@
         <v>1</v>
       </c>
       <c r="AF174">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="175" spans="1:32">
@@ -18027,7 +18063,7 @@
         <v>1</v>
       </c>
       <c r="AF175">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="176" spans="1:32">
@@ -18125,7 +18161,7 @@
         <v>1</v>
       </c>
       <c r="AF176">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177" spans="1:32">
@@ -18223,7 +18259,7 @@
         <v>1</v>
       </c>
       <c r="AF177">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="178" spans="1:32">
@@ -18321,7 +18357,7 @@
         <v>1</v>
       </c>
       <c r="AF178">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179" spans="1:32">
@@ -18419,7 +18455,7 @@
         <v>1</v>
       </c>
       <c r="AF179">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="180" spans="1:32">
@@ -18517,7 +18553,7 @@
         <v>1</v>
       </c>
       <c r="AF180">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="181" spans="1:32">
@@ -18615,7 +18651,7 @@
         <v>1</v>
       </c>
       <c r="AF181">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="182" spans="1:32">
@@ -18713,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="AF182">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="183" spans="1:32">
@@ -18811,7 +18847,7 @@
         <v>1</v>
       </c>
       <c r="AF183">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:32">
@@ -18909,7 +18945,7 @@
         <v>1</v>
       </c>
       <c r="AF184">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:32">
@@ -19007,7 +19043,7 @@
         <v>1</v>
       </c>
       <c r="AF185">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="186" spans="1:32">
@@ -19105,7 +19141,7 @@
         <v>1</v>
       </c>
       <c r="AF186">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187" spans="1:32">
@@ -19203,7 +19239,7 @@
         <v>1</v>
       </c>
       <c r="AF187">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:32">
@@ -19301,7 +19337,7 @@
         <v>1</v>
       </c>
       <c r="AF188">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189" spans="1:32">
@@ -19399,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="AF189">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190" spans="1:32">
@@ -19497,7 +19533,7 @@
         <v>1</v>
       </c>
       <c r="AF190">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:32">
@@ -19595,7 +19631,7 @@
         <v>1</v>
       </c>
       <c r="AF191">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192" spans="1:32">
@@ -19693,7 +19729,7 @@
         <v>1</v>
       </c>
       <c r="AF192">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193" spans="1:32">
@@ -19791,7 +19827,7 @@
         <v>1</v>
       </c>
       <c r="AF193">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194" spans="1:32">
@@ -19889,7 +19925,7 @@
         <v>1</v>
       </c>
       <c r="AF194">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195" spans="1:32">
@@ -19987,7 +20023,7 @@
         <v>1</v>
       </c>
       <c r="AF195">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196" spans="1:32">
@@ -20085,7 +20121,7 @@
         <v>1</v>
       </c>
       <c r="AF196">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197" spans="1:32">
@@ -20183,7 +20219,7 @@
         <v>1</v>
       </c>
       <c r="AF197">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="198" spans="1:32">
@@ -20281,7 +20317,7 @@
         <v>1</v>
       </c>
       <c r="AF198">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="199" spans="1:32">
@@ -20379,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="AF199">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:32">
@@ -20477,7 +20513,7 @@
         <v>1</v>
       </c>
       <c r="AF200">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201" spans="1:32">
@@ -20575,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="AF201">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="202" spans="1:32">
@@ -20673,7 +20709,7 @@
         <v>1</v>
       </c>
       <c r="AF202">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:32">
@@ -20771,7 +20807,7 @@
         <v>1</v>
       </c>
       <c r="AF203">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="204" spans="1:32">
@@ -20869,7 +20905,7 @@
         <v>1</v>
       </c>
       <c r="AF204">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205" spans="1:32">
@@ -20967,7 +21003,7 @@
         <v>1</v>
       </c>
       <c r="AF205">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206" spans="1:32">
@@ -21065,7 +21101,7 @@
         <v>1</v>
       </c>
       <c r="AF206">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207" spans="1:32">
@@ -21163,7 +21199,7 @@
         <v>1</v>
       </c>
       <c r="AF207">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208" spans="1:32">
@@ -21261,7 +21297,7 @@
         <v>1</v>
       </c>
       <c r="AF208">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="209" spans="1:32">
@@ -21359,7 +21395,7 @@
         <v>1</v>
       </c>
       <c r="AF209">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="210" spans="1:32">
@@ -21457,7 +21493,7 @@
         <v>1</v>
       </c>
       <c r="AF210">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:32">
@@ -21555,7 +21591,7 @@
         <v>1</v>
       </c>
       <c r="AF211">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:32">
@@ -21653,7 +21689,7 @@
         <v>1</v>
       </c>
       <c r="AF212">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:32">
@@ -21751,7 +21787,7 @@
         <v>1</v>
       </c>
       <c r="AF213">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214" spans="1:32">
@@ -21849,7 +21885,7 @@
         <v>1</v>
       </c>
       <c r="AF214">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215" spans="1:32">
@@ -21947,7 +21983,7 @@
         <v>1</v>
       </c>
       <c r="AF215">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:32">
@@ -22045,7 +22081,7 @@
         <v>1</v>
       </c>
       <c r="AF216">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="217" spans="1:32">
@@ -22143,7 +22179,7 @@
         <v>1</v>
       </c>
       <c r="AF217">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218" spans="1:32">
@@ -22241,7 +22277,7 @@
         <v>1</v>
       </c>
       <c r="AF218">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219" spans="1:32">
@@ -22339,7 +22375,7 @@
         <v>1</v>
       </c>
       <c r="AF219">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="220" spans="1:32">
@@ -22437,7 +22473,7 @@
         <v>1</v>
       </c>
       <c r="AF220">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:32">
@@ -22535,7 +22571,1183 @@
         <v>1</v>
       </c>
       <c r="AF221">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:32">
+      <c r="A222" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>1</v>
+      </c>
+      <c r="AF222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:32">
+      <c r="A223" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>1</v>
+      </c>
+      <c r="AF223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:32">
+      <c r="A224" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>1</v>
+      </c>
+      <c r="AF224">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:32">
+      <c r="A225" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>1</v>
+      </c>
+      <c r="AF225">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:32">
+      <c r="A226" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>1</v>
+      </c>
+      <c r="AF226">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:32">
+      <c r="A227" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>1</v>
+      </c>
+      <c r="AF227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:32">
+      <c r="A228" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>1</v>
+      </c>
+      <c r="AF228">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:32">
+      <c r="A229" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>1</v>
+      </c>
+      <c r="AF229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:32">
+      <c r="A230" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>1</v>
+      </c>
+      <c r="AF230">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:32">
+      <c r="A231" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>1</v>
+      </c>
+      <c r="AF231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:32">
+      <c r="A232" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>1</v>
+      </c>
+      <c r="AF232">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:32">
+      <c r="A233" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>1</v>
+      </c>
+      <c r="AF233">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
